--- a/pcb/logic/bom.xlsx
+++ b/pcb/logic/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Projects\coincidenceCounter\pcb\logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>QTY</t>
   </si>
@@ -134,9 +134,6 @@
     <t>0R Jumper</t>
   </si>
   <si>
-    <t>R2, R3, R5, R8, R10</t>
-  </si>
-  <si>
     <t>Standoffs</t>
   </si>
   <si>
@@ -252,6 +249,27 @@
   </si>
   <si>
     <t>3/16" Hex Size, 1/4" Length, 4-40 Thread Size</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>TRIMMER 10K OHM 0.25W SMD</t>
+  </si>
+  <si>
+    <t>3314Z-1-103E</t>
+  </si>
+  <si>
+    <t>3314Z-103ECT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/bourns-inc/3314Z-1-103E/3314Z-103ECT-ND/253541</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R2, R3, R5</t>
   </si>
 </sst>
 </file>
@@ -262,7 +280,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +329,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,7 +358,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -348,6 +372,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,14 +663,14 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -690,16 +718,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
@@ -708,13 +736,13 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="5">
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -722,13 +750,13 @@
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F3" s="7">
         <v>3</v>
@@ -737,13 +765,13 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="5">
         <v>1.11E-2</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -754,13 +782,13 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -769,42 +797,42 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5">
-        <v>1.8499999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -812,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -844,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -862,7 +890,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5">
         <v>0.20499999999999999</v>
@@ -876,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -908,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -926,7 +954,7 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="5">
         <v>0.35199999999999998</v>
@@ -935,21 +963,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
@@ -958,13 +986,13 @@
         <v>0.36</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="5">
         <v>1.44</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -972,16 +1000,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -990,30 +1018,30 @@
         <v>1.835</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5">
         <v>1.835</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1022,18 +1050,46 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>

--- a/pcb/logic/bom.xlsx
+++ b/pcb/logic/bom.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>QTY</t>
   </si>
@@ -270,6 +270,42 @@
   </si>
   <si>
     <t>R2, R3, R5</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=160-1475-1-ND</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR 0603 R/A SMD</t>
+  </si>
+  <si>
+    <t>LTST-S270GKT</t>
+  </si>
+  <si>
+    <t>160-1475-1-ND</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/yageo/RC0402JR-07150RL/311-150JRCT-ND/729371</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Resistor for LED</t>
+  </si>
+  <si>
+    <t>RES SMD 150 OHM 5% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RC0402JR-07150RL</t>
+  </si>
+  <si>
+    <t>311-150JRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -280,7 +316,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,21 +363,10 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -358,26 +391,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -663,7 +695,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,7 +705,7 @@
     <col min="3" max="3" width="40.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -682,422 +714,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="9">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="11">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="11">
         <v>1.11E-2</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="11">
         <v>1.11E-2</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9">
         <v>3.37</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="11">
         <v>3.37</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="11">
         <v>0.20499999999999999</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>4.4800000000000004</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="11">
         <v>4.4800000000000004</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>0.35199999999999998</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="11">
         <v>0.35199999999999998</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>0.36</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="11">
         <v>1.44</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="13">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>1.835</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="11">
         <v>1.835</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <v>2.0059999999999998</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="11">
         <v>2.0059999999999998</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
@@ -1154,8 +1244,11 @@
     <hyperlink ref="J5" r:id="rId9"/>
     <hyperlink ref="J3" r:id="rId10"/>
     <hyperlink ref="J12" r:id="rId11"/>
+    <hyperlink ref="J13" r:id="rId12"/>
+    <hyperlink ref="J14" r:id="rId13"/>
+    <hyperlink ref="J15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/pcb/logic/bom.xlsx
+++ b/pcb/logic/bom.xlsx
@@ -695,7 +695,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5">
+        <f>SUM(I2:I15)</f>
+        <v>14.392000000000001</v>
+      </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
